--- a/Gráficas/gráficas de comparación.xlsx
+++ b/Gráficas/gráficas de comparación.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jose\Documents\GitHub\HdT6\Gráficas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1118C08A-00A8-46AC-8028-D4063D89F7A0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3418F0D-6C28-4F58-B07B-2D0EEE8984D0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{684CFEB5-B9AD-4100-B670-2082409D3941}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="10">
   <si>
     <t>HashMap</t>
   </si>
@@ -56,6 +56,15 @@
   </si>
   <si>
     <t>LinkedHashMaP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HashMap </t>
+  </si>
+  <si>
+    <t>Datos</t>
+  </si>
+  <si>
+    <t>Tiempo(ms)</t>
   </si>
 </sst>
 </file>
@@ -91,7 +100,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -127,19 +136,51 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -867,6 +908,469 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-GT"/>
+              <a:t>Complejidad del HashMap en tiempo para</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="es-GT" baseline="0"/>
+              <a:t> mostrar las Cartas</a:t>
+            </a:r>
+            <a:endParaRPr lang="es-GT"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-GT"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>d.!$B$10:$B$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2500</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>d.!$C$10:$C$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>187</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>218</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>265</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>280</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>312</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>468</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-9EA4-4D5C-866F-B82E2D84D765}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="135431288"/>
+        <c:axId val="135431608"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="135431288"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-GT"/>
+                  <a:t>Número</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="es-GT" baseline="0"/>
+                  <a:t> de Cartas</a:t>
+                </a:r>
+                <a:endParaRPr lang="es-GT"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-GT"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-GT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="135431608"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="135431608"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-GT"/>
+                  <a:t>Tiempo (ms)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-GT"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-GT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="135431288"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-GT"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -947,6 +1451,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="207">
   <cs:axisTitle>
@@ -1881,6 +2425,522 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx2"/>
     </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
   </cs:wall>
 </cs:chartStyle>
 </file>
@@ -1954,6 +3014,47 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>625475</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>60325</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>625475</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>41275</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Gráfico 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{719A9477-8BE5-4BA1-8CCD-44D954AD10D2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -2268,18 +3369,18 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="2" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="3"/>
-      <c r="E2" s="3" t="s">
+      <c r="C2" s="5"/>
+      <c r="E2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="3"/>
-      <c r="H2" s="3" t="s">
+      <c r="F2" s="5"/>
+      <c r="H2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="I2" s="3"/>
+      <c r="I2" s="5"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B3" s="2" t="s">
@@ -2362,22 +3463,22 @@
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="B7" s="4">
+      <c r="B7" s="3">
         <v>625</v>
       </c>
-      <c r="C7" s="4">
+      <c r="C7" s="3">
         <v>296</v>
       </c>
-      <c r="E7" s="4">
+      <c r="E7" s="3">
         <v>296</v>
       </c>
-      <c r="F7" s="4">
+      <c r="F7" s="3">
         <v>203</v>
       </c>
-      <c r="H7" s="4">
+      <c r="H7" s="3">
         <v>156</v>
       </c>
-      <c r="I7" s="4">
+      <c r="I7" s="3">
         <v>343</v>
       </c>
     </row>
@@ -2393,16 +3494,16 @@
         <f>AVERAGE(C4:C7)</f>
         <v>448.5</v>
       </c>
-      <c r="D8" s="5"/>
+      <c r="D8" s="4"/>
       <c r="E8" s="2">
-        <f t="shared" ref="D8:F8" si="0">AVERAGE(E4:E7)</f>
+        <f t="shared" ref="E8:F8" si="0">AVERAGE(E4:E7)</f>
         <v>331.75</v>
       </c>
       <c r="F8" s="2">
         <f t="shared" si="0"/>
         <v>351.25</v>
       </c>
-      <c r="G8" s="5"/>
+      <c r="G8" s="4"/>
       <c r="H8" s="2">
         <f>AVERAGE(H4:H7)</f>
         <v>198.75</v>
@@ -2468,14 +3569,81 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A03C670B-6727-4B4D-956E-059F507E0069}">
-  <dimension ref="A1"/>
+  <dimension ref="B8:C15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData/>
+  <sheetData>
+    <row r="8" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B8" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="7"/>
+    </row>
+    <row r="9" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B9" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B10" s="1">
+        <v>100</v>
+      </c>
+      <c r="C10" s="1">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B11" s="1">
+        <v>500</v>
+      </c>
+      <c r="C11" s="1">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="12" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B12" s="1">
+        <v>1000</v>
+      </c>
+      <c r="C12" s="1">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="13" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B13" s="1">
+        <v>2500</v>
+      </c>
+      <c r="C13" s="1">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="14" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B14" s="1">
+        <v>5000</v>
+      </c>
+      <c r="C14" s="1">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="15" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B15" s="1">
+        <v>8000</v>
+      </c>
+      <c r="C15" s="1">
+        <v>468</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B8:C8"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>